--- a/data/hotels_by_city/Dallas/Dallas_shard_586.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_586.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,129 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r495517917-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55922</t>
+  </si>
+  <si>
+    <t>6506206</t>
+  </si>
+  <si>
+    <t>495517917</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Ok for a one night stay</t>
+  </si>
+  <si>
+    <t>First room...hair in the bad and the comfort had cigarette burns....it was dusty.....guest service wasnt great but hey...second one was better but the floor look like it wasnt sweep in weeks...beds where good enough...clean sheets and comfort.....bathroom look like mold in the shower and on the floor...oh yeah room was extremely hot...air was not on n it took hours for the room to cool off...ok for a one night stay</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r447889652-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>447889652</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>In G.P. with my son for his job interview...</t>
+  </si>
+  <si>
+    <t>We all look for bargains, great deals and making our dollar stretch as far as we can, especially a single mom with a recent College graduate who is in G.P. to support him on a job interview.
+The saying goes, "you get what you pay for"!!
+But, what exactly does that really mean? I'll tell u exactly what it means. It means that one should expect a filthy room that has dust on the furniture and "wood/laminate floors that haven't been dust mopped in God knows how long!! Don't look under the beds whatever you do! There was long hair in the tub (not urs), holes in the towels (please throw them away), and most importantly a VERY unhelpful, rude, totally unprofessional desk clerk! Where do they get these people?
+My daughter and I were with my son who had just graduated from Texas Tech, and our way back home for the holidays (Temple, Austin &amp; San Marcos). He had an interview in G.P. with a State Agency that had positions opened in the area with his degree. We stopped there on the way back with him for support. Though I did make our reservation over the phone through Hotels.com, for 1 night (December 19-20), the details of the information I gave were somehow not entered correctly into the computer somewhere. Doesn't matter whose fault it was, the clerk should've been more than willing to help us and remedy our...We all look for bargains, great deals and making our dollar stretch as far as we can, especially a single mom with a recent College graduate who is in G.P. to support him on a job interview.The saying goes, "you get what you pay for"!!But, what exactly does that really mean? I'll tell u exactly what it means. It means that one should expect a filthy room that has dust on the furniture and "wood/laminate floors that haven't been dust mopped in God knows how long!! Don't look under the beds whatever you do! There was long hair in the tub (not urs), holes in the towels (please throw them away), and most importantly a VERY unhelpful, rude, totally unprofessional desk clerk! Where do they get these people?My daughter and I were with my son who had just graduated from Texas Tech, and our way back home for the holidays (Temple, Austin &amp; San Marcos). He had an interview in G.P. with a State Agency that had positions opened in the area with his degree. We stopped there on the way back with him for support. Though I did make our reservation over the phone through Hotels.com, for 1 night (December 19-20), the details of the information I gave were somehow not entered correctly into the computer somewhere. Doesn't matter whose fault it was, the clerk should've been more than willing to help us and remedy our situation. Maybe tell us she couldn't make changes, but if we call Hotels.com, they could help us! Isn't that what good customer service is supposed to be like?? The Motel6, which I chose specifically because the location was near where my son was going for his job interview, had us in a 2 double-bed "smoking" room. When we told her it was supposed to be a "NON-smoking" room, she gave us attitude and wouldn't help. We didn't want our clothes smelling like smoke, and even less my son's suit for his interview. She told us if she cancelled our current reservation and put us in another room, that the price would differ. I asked her how much and she said it would be $80 + tax, which would put it closer to $90. I decided to call Hotels.com while sitting practically in front of her and the gentleman I spoke to told me the computer showed a "NON-smoking" room. He put me on hold &amp; called her to talk to her. Remember, I'm sitting in front of her, maybe 30' away, if that. Then he came back on the line and told me everything had been corrected with the clerk and that she would take it from there. Well she took it from there alright. With only 5 vehicles or so in the entire parking lot, she put us on the 3rd floor in the farthest corner room of the entire motel. I had my dog with me, but lucky for me she does stairs and the extra flight didn't kill us! Motel6 certainly isn't  what it used to be, BUT this particular location isn't worth the filth, the headache, or the price no matter what ur budget or location preference is. Just invest a little more $$ and make ur reservation elsewhere... Plus the parking lot &amp; the grounds looked like a dump site! I'm not kidding!!On a happy note, my son got a job offer in their Dallas office the next day, and Hotels.com gave me a $20 credit on a future reservation, for the inconvenience we experienced!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We all look for bargains, great deals and making our dollar stretch as far as we can, especially a single mom with a recent College graduate who is in G.P. to support him on a job interview.
+The saying goes, "you get what you pay for"!!
+But, what exactly does that really mean? I'll tell u exactly what it means. It means that one should expect a filthy room that has dust on the furniture and "wood/laminate floors that haven't been dust mopped in God knows how long!! Don't look under the beds whatever you do! There was long hair in the tub (not urs), holes in the towels (please throw them away), and most importantly a VERY unhelpful, rude, totally unprofessional desk clerk! Where do they get these people?
+My daughter and I were with my son who had just graduated from Texas Tech, and our way back home for the holidays (Temple, Austin &amp; San Marcos). He had an interview in G.P. with a State Agency that had positions opened in the area with his degree. We stopped there on the way back with him for support. Though I did make our reservation over the phone through Hotels.com, for 1 night (December 19-20), the details of the information I gave were somehow not entered correctly into the computer somewhere. Doesn't matter whose fault it was, the clerk should've been more than willing to help us and remedy our...We all look for bargains, great deals and making our dollar stretch as far as we can, especially a single mom with a recent College graduate who is in G.P. to support him on a job interview.The saying goes, "you get what you pay for"!!But, what exactly does that really mean? I'll tell u exactly what it means. It means that one should expect a filthy room that has dust on the furniture and "wood/laminate floors that haven't been dust mopped in God knows how long!! Don't look under the beds whatever you do! There was long hair in the tub (not urs), holes in the towels (please throw them away), and most importantly a VERY unhelpful, rude, totally unprofessional desk clerk! Where do they get these people?My daughter and I were with my son who had just graduated from Texas Tech, and our way back home for the holidays (Temple, Austin &amp; San Marcos). He had an interview in G.P. with a State Agency that had positions opened in the area with his degree. We stopped there on the way back with him for support. Though I did make our reservation over the phone through Hotels.com, for 1 night (December 19-20), the details of the information I gave were somehow not entered correctly into the computer somewhere. Doesn't matter whose fault it was, the clerk should've been more than willing to help us and remedy our situation. Maybe tell us she couldn't make changes, but if we call Hotels.com, they could help us! Isn't that what good customer service is supposed to be like?? The Motel6, which I chose specifically because the location was near where my son was going for his job interview, had us in a 2 double-bed "smoking" room. When we told her it was supposed to be a "NON-smoking" room, she gave us attitude and wouldn't help. We didn't want our clothes smelling like smoke, and even less my son's suit for his interview. She told us if she cancelled our current reservation and put us in another room, that the price would differ. I asked her how much and she said it would be $80 + tax, which would put it closer to $90. I decided to call Hotels.com while sitting practically in front of her and the gentleman I spoke to told me the computer showed a "NON-smoking" room. He put me on hold &amp; called her to talk to her. Remember, I'm sitting in front of her, maybe 30' away, if that. Then he came back on the line and told me everything had been corrected with the clerk and that she would take it from there. Well she took it from there alright. With only 5 vehicles or so in the entire parking lot, she put us on the 3rd floor in the farthest corner room of the entire motel. I had my dog with me, but lucky for me she does stairs and the extra flight didn't kill us! Motel6 certainly isn't  what it used to be, BUT this particular location isn't worth the filth, the headache, or the price no matter what ur budget or location preference is. Just invest a little more $$ and make ur reservation elsewhere... Plus the parking lot &amp; the grounds looked like a dump site! I'm not kidding!!On a happy note, my son got a job offer in their Dallas office the next day, and Hotels.com gave me a $20 credit on a future reservation, for the inconvenience we experienced!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r445222290-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>445222290</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Don't waste your money, truly an awful place</t>
+  </si>
+  <si>
+    <t>Booked this hotel to be close to Six Flags for a quick family getaway. The getaway turned into how fast could we get away from the hotel. First I requested non-smoking and was booked into a smoking room. Second when we got into the room the bed sheets and blankets had obvious burn scars from cigarettes. Third and most offensive our room was full of dead and live yellow jackets. Nothing like having to dodge being stung in your own hotel room. The property is run down like a seedy motel, nothing like other motel 6's I've stayed at over the years. Corporate should pull the name off this disaster. Unless you are extremely desperate do not put money into this place, it is truly an awful property. I especially recommend you not subject a family to this hotel if you don't absolutely have too, I've traveled the world and this is by far the worst hotel I ever had the displeasure to almost stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Booked this hotel to be close to Six Flags for a quick family getaway. The getaway turned into how fast could we get away from the hotel. First I requested non-smoking and was booked into a smoking room. Second when we got into the room the bed sheets and blankets had obvious burn scars from cigarettes. Third and most offensive our room was full of dead and live yellow jackets. Nothing like having to dodge being stung in your own hotel room. The property is run down like a seedy motel, nothing like other motel 6's I've stayed at over the years. Corporate should pull the name off this disaster. Unless you are extremely desperate do not put money into this place, it is truly an awful property. I especially recommend you not subject a family to this hotel if you don't absolutely have too, I've traveled the world and this is by far the worst hotel I ever had the displeasure to almost stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r394074445-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>394074445</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Management lies/denies stay after paying</t>
+  </si>
+  <si>
+    <t>I stayed there for approximately a week and when I rebooked the room and prepaid, the front said i was not allowed to stay anymore. Lies about pet policies, if you stay and bring a pet, you are not allowed to leave them unattended, even in a kennel, despite being told otherwise. So basically you can't leave the room whatsoever. Harassed me, called me repeatedly on hotel phone, and stood outside the door while I was trying to pack/move stuff to the car as I hadn't planned on checking out and it was 10 minutes past time. Oh, and their free wifi? Good luck getting a signal. I was right by the office and couldn't keep a signal the entire stay. Rooms were nice, otherwise.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed there for approximately a week and when I rebooked the room and prepaid, the front said i was not allowed to stay anymore. Lies about pet policies, if you stay and bring a pet, you are not allowed to leave them unattended, even in a kennel, despite being told otherwise. So basically you can't leave the room whatsoever. Harassed me, called me repeatedly on hotel phone, and stood outside the door while I was trying to pack/move stuff to the car as I hadn't planned on checking out and it was 10 minutes past time. Oh, and their free wifi? Good luck getting a signal. I was right by the office and couldn't keep a signal the entire stay. Rooms were nice, otherwise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r393199045-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>393199045</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Awesome Experience</t>
+  </si>
+  <si>
+    <t>Upon entering the lobby I was greeted by a friendly clerk. The check in was fast and just the way I like it. I went up to my room and found it to be very clean. The parking lot a night was also well lit and I could see my car from my room. I picked this hotel to stay  because it was close to all the places that my family and I wanted to visit. Let me just say that you left a good impression on me and I will be returning to this hotel in a few months when i'm back in town.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
   </si>
 </sst>
 </file>
@@ -645,6 +768,303 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_586.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_586.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Shunta R</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>divaleric</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r447889652-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -207,6 +213,9 @@
 My daughter and I were with my son who had just graduated from Texas Tech, and our way back home for the holidays (Temple, Austin &amp; San Marcos). He had an interview in G.P. with a State Agency that had positions opened in the area with his degree. We stopped there on the way back with him for support. Though I did make our reservation over the phone through Hotels.com, for 1 night (December 19-20), the details of the information I gave were somehow not entered correctly into the computer somewhere. Doesn't matter whose fault it was, the clerk should've been more than willing to help us and remedy our...We all look for bargains, great deals and making our dollar stretch as far as we can, especially a single mom with a recent College graduate who is in G.P. to support him on a job interview.The saying goes, "you get what you pay for"!!But, what exactly does that really mean? I'll tell u exactly what it means. It means that one should expect a filthy room that has dust on the furniture and "wood/laminate floors that haven't been dust mopped in God knows how long!! Don't look under the beds whatever you do! There was long hair in the tub (not urs), holes in the towels (please throw them away), and most importantly a VERY unhelpful, rude, totally unprofessional desk clerk! Where do they get these people?My daughter and I were with my son who had just graduated from Texas Tech, and our way back home for the holidays (Temple, Austin &amp; San Marcos). He had an interview in G.P. with a State Agency that had positions opened in the area with his degree. We stopped there on the way back with him for support. Though I did make our reservation over the phone through Hotels.com, for 1 night (December 19-20), the details of the information I gave were somehow not entered correctly into the computer somewhere. Doesn't matter whose fault it was, the clerk should've been more than willing to help us and remedy our situation. Maybe tell us she couldn't make changes, but if we call Hotels.com, they could help us! Isn't that what good customer service is supposed to be like?? The Motel6, which I chose specifically because the location was near where my son was going for his job interview, had us in a 2 double-bed "smoking" room. When we told her it was supposed to be a "NON-smoking" room, she gave us attitude and wouldn't help. We didn't want our clothes smelling like smoke, and even less my son's suit for his interview. She told us if she cancelled our current reservation and put us in another room, that the price would differ. I asked her how much and she said it would be $80 + tax, which would put it closer to $90. I decided to call Hotels.com while sitting practically in front of her and the gentleman I spoke to told me the computer showed a "NON-smoking" room. He put me on hold &amp; called her to talk to her. Remember, I'm sitting in front of her, maybe 30' away, if that. Then he came back on the line and told me everything had been corrected with the clerk and that she would take it from there. Well she took it from there alright. With only 5 vehicles or so in the entire parking lot, she put us on the 3rd floor in the farthest corner room of the entire motel. I had my dog with me, but lucky for me she does stairs and the extra flight didn't kill us! Motel6 certainly isn't  what it used to be, BUT this particular location isn't worth the filth, the headache, or the price no matter what ur budget or location preference is. Just invest a little more $$ and make ur reservation elsewhere... Plus the parking lot &amp; the grounds looked like a dump site! I'm not kidding!!On a happy note, my son got a job offer in their Dallas office the next day, and Hotels.com gave me a $20 credit on a future reservation, for the inconvenience we experienced!!More</t>
   </si>
   <si>
+    <t>Buldg99nc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r445222290-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Booked this hotel to be close to Six Flags for a quick family getaway. The getaway turned into how fast could we get away from the hotel. First I requested non-smoking and was booked into a smoking room. Second when we got into the room the bed sheets and blankets had obvious burn scars from cigarettes. Third and most offensive our room was full of dead and live yellow jackets. Nothing like having to dodge being stung in your own hotel room. The property is run down like a seedy motel, nothing like other motel 6's I've stayed at over the years. Corporate should pull the name off this disaster. Unless you are extremely desperate do not put money into this place, it is truly an awful property. I especially recommend you not subject a family to this hotel if you don't absolutely have too, I've traveled the world and this is by far the worst hotel I ever had the displeasure to almost stay in.More</t>
   </si>
   <si>
+    <t>Katie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r394074445-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -250,6 +262,9 @@
   </si>
   <si>
     <t>I stayed there for approximately a week and when I rebooked the room and prepaid, the front said i was not allowed to stay anymore. Lies about pet policies, if you stay and bring a pet, you are not allowed to leave them unattended, even in a kennel, despite being told otherwise. So basically you can't leave the room whatsoever. Harassed me, called me repeatedly on hotel phone, and stood outside the door while I was trying to pack/move stuff to the car as I hadn't planned on checking out and it was 10 minutes past time. Oh, and their free wifi? Good luck getting a signal. I was right by the office and couldn't keep a signal the entire stay. Rooms were nice, otherwise.More</t>
+  </si>
+  <si>
+    <t>jainjohnson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r393199045-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -772,43 +787,47 @@
       <c r="A2" t="n">
         <v>33893</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -828,50 +847,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33893</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169473</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -885,50 +908,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33893</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169474</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -942,50 +969,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33893</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -999,50 +1030,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33893</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169475</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1062,7 +1097,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_586.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_586.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Shunta R</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r557781134-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55922</t>
+  </si>
+  <si>
+    <t>6506206</t>
+  </si>
+  <si>
+    <t>557781134</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Cold night</t>
+  </si>
+  <si>
+    <t>I stayed in one night at this property. When i asked for a king bed, the front desk lady said they only had queen bed. I checked in and every thing was off. Mirror wasnt cleaned, tub had pubic hair, sink wasnt cleaned, and do they have a maintenance guy because alot things needed fixing like door latch wasn't working, tub drained really slow, the light was out. Very outdated, but i guess thats a motel six for ya.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Grand Prairie, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>I stayed in one night at this property. When i asked for a king bed, the front desk lady said they only had queen bed. I checked in and every thing was off. Mirror wasnt cleaned, tub had pubic hair, sink wasnt cleaned, and do they have a maintenance guy because alot things needed fixing like door latch wasn't working, tub drained really slow, the light was out. Very outdated, but i guess thats a motel six for ya.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r512500497-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>512500497</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>This is a 1st...</t>
+  </si>
+  <si>
+    <t>I like the Motel 6 chain and usually do not have a problem. But this time was a whole nutha story. A large...very large roach (3+ inches) greeted me when I opened the room door. No pics cuz I closed the door and walked away IMMEDIATELY . Once he was ejected I noticed the bed covers were stained and the floors were very dirty. As if someone forgot to sweep and mop after cleaning the room. Two stars because it was close to the freeway and the rate was good.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r495517917-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
-    <t>55922</t>
-  </si>
-  <si>
-    <t>6506206</t>
-  </si>
-  <si>
     <t>495517917</t>
   </si>
   <si>
@@ -175,12 +223,6 @@
   </si>
   <si>
     <t>June 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>divaleric</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r447889652-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -213,9 +255,6 @@
 My daughter and I were with my son who had just graduated from Texas Tech, and our way back home for the holidays (Temple, Austin &amp; San Marcos). He had an interview in G.P. with a State Agency that had positions opened in the area with his degree. We stopped there on the way back with him for support. Though I did make our reservation over the phone through Hotels.com, for 1 night (December 19-20), the details of the information I gave were somehow not entered correctly into the computer somewhere. Doesn't matter whose fault it was, the clerk should've been more than willing to help us and remedy our...We all look for bargains, great deals and making our dollar stretch as far as we can, especially a single mom with a recent College graduate who is in G.P. to support him on a job interview.The saying goes, "you get what you pay for"!!But, what exactly does that really mean? I'll tell u exactly what it means. It means that one should expect a filthy room that has dust on the furniture and "wood/laminate floors that haven't been dust mopped in God knows how long!! Don't look under the beds whatever you do! There was long hair in the tub (not urs), holes in the towels (please throw them away), and most importantly a VERY unhelpful, rude, totally unprofessional desk clerk! Where do they get these people?My daughter and I were with my son who had just graduated from Texas Tech, and our way back home for the holidays (Temple, Austin &amp; San Marcos). He had an interview in G.P. with a State Agency that had positions opened in the area with his degree. We stopped there on the way back with him for support. Though I did make our reservation over the phone through Hotels.com, for 1 night (December 19-20), the details of the information I gave were somehow not entered correctly into the computer somewhere. Doesn't matter whose fault it was, the clerk should've been more than willing to help us and remedy our situation. Maybe tell us she couldn't make changes, but if we call Hotels.com, they could help us! Isn't that what good customer service is supposed to be like?? The Motel6, which I chose specifically because the location was near where my son was going for his job interview, had us in a 2 double-bed "smoking" room. When we told her it was supposed to be a "NON-smoking" room, she gave us attitude and wouldn't help. We didn't want our clothes smelling like smoke, and even less my son's suit for his interview. She told us if she cancelled our current reservation and put us in another room, that the price would differ. I asked her how much and she said it would be $80 + tax, which would put it closer to $90. I decided to call Hotels.com while sitting practically in front of her and the gentleman I spoke to told me the computer showed a "NON-smoking" room. He put me on hold &amp; called her to talk to her. Remember, I'm sitting in front of her, maybe 30' away, if that. Then he came back on the line and told me everything had been corrected with the clerk and that she would take it from there. Well she took it from there alright. With only 5 vehicles or so in the entire parking lot, she put us on the 3rd floor in the farthest corner room of the entire motel. I had my dog with me, but lucky for me she does stairs and the extra flight didn't kill us! Motel6 certainly isn't  what it used to be, BUT this particular location isn't worth the filth, the headache, or the price no matter what ur budget or location preference is. Just invest a little more $$ and make ur reservation elsewhere... Plus the parking lot &amp; the grounds looked like a dump site! I'm not kidding!!On a happy note, my son got a job offer in their Dallas office the next day, and Hotels.com gave me a $20 credit on a future reservation, for the inconvenience we experienced!!More</t>
   </si>
   <si>
-    <t>Buldg99nc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r445222290-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -231,13 +270,49 @@
     <t>Booked this hotel to be close to Six Flags for a quick family getaway. The getaway turned into how fast could we get away from the hotel. First I requested non-smoking and was booked into a smoking room. Second when we got into the room the bed sheets and blankets had obvious burn scars from cigarettes. Third and most offensive our room was full of dead and live yellow jackets. Nothing like having to dodge being stung in your own hotel room. The property is run down like a seedy motel, nothing like other motel 6's I've stayed at over the years. Corporate should pull the name off this disaster. Unless you are extremely desperate do not put money into this place, it is truly an awful property. I especially recommend you not subject a family to this hotel if you don't absolutely have too, I've traveled the world and this is by far the worst hotel I ever had the displeasure to almost stay in.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Booked this hotel to be close to Six Flags for a quick family getaway. The getaway turned into how fast could we get away from the hotel. First I requested non-smoking and was booked into a smoking room. Second when we got into the room the bed sheets and blankets had obvious burn scars from cigarettes. Third and most offensive our room was full of dead and live yellow jackets. Nothing like having to dodge being stung in your own hotel room. The property is run down like a seedy motel, nothing like other motel 6's I've stayed at over the years. Corporate should pull the name off this disaster. Unless you are extremely desperate do not put money into this place, it is truly an awful property. I especially recommend you not subject a family to this hotel if you don't absolutely have too, I've traveled the world and this is by far the worst hotel I ever had the displeasure to almost stay in.More</t>
   </si>
   <si>
-    <t>Katie R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r431505698-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>431505698</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>It was okay.</t>
+  </si>
+  <si>
+    <t>We checked out of this hotel a couple of nights ago after a two night stay for myself and my Dad. My Dad is a fan of Motel 6's because he doesn't care about luxuries and loves the low prices.Myself, I prefer fancy hotels and this one was definitely not fancy. That being said, we paid very little for this room and all we needed was a place to come back to sleep.The basics about this room (#310):1) Everything worked (TV, power, internet)2) The blanket on the bed did have some stains, burns on it, but I did not get the impression that it was dirty.3) Found the bodies of two dead bugs in the room (one on the floor near the window, one in the bathroom) but I did not find any live bugs in the room (and I was looking). 4) Great location. As soon as I pulled out of the parking lot, I was on the 360 and going.For the price, you get what you paid for and I believe that this hotel is good value for your money. Would I stay here again? Only if I needed to.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We checked out of this hotel a couple of nights ago after a two night stay for myself and my Dad. My Dad is a fan of Motel 6's because he doesn't care about luxuries and loves the low prices.Myself, I prefer fancy hotels and this one was definitely not fancy. That being said, we paid very little for this room and all we needed was a place to come back to sleep.The basics about this room (#310):1) Everything worked (TV, power, internet)2) The blanket on the bed did have some stains, burns on it, but I did not get the impression that it was dirty.3) Found the bodies of two dead bugs in the room (one on the floor near the window, one in the bathroom) but I did not find any live bugs in the room (and I was looking). 4) Great location. As soon as I pulled out of the parking lot, I was on the 360 and going.For the price, you get what you paid for and I believe that this hotel is good value for your money. Would I stay here again? Only if I needed to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r404198605-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>404198605</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Sucks</t>
+  </si>
+  <si>
+    <t>There was an empty condom wrapper under the bed, dust lint piled up behind the door, no tub stopper, requested a crib when I made the reservations and when I arrived I was told they don't have cribs, had to put the mattress on the floor for my toddler. The floor was sticky, the tub faucet was pulled away from the wall and there where pieces of cement that was loose and falling into the tub. Left early the next morning and located a best western. Voiced my complaints to the nice guy at the front desk and all he did was stand there and smile. WILL never use this place or any motel 6 AGAIN.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>There was an empty condom wrapper under the bed, dust lint piled up behind the door, no tub stopper, requested a crib when I made the reservations and when I arrived I was told they don't have cribs, had to put the mattress on the floor for my toddler. The floor was sticky, the tub faucet was pulled away from the wall and there where pieces of cement that was loose and falling into the tub. Left early the next morning and located a best western. Voiced my complaints to the nice guy at the front desk and all he did was stand there and smile. WILL never use this place or any motel 6 AGAIN.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r394074445-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -262,9 +337,6 @@
   </si>
   <si>
     <t>I stayed there for approximately a week and when I rebooked the room and prepaid, the front said i was not allowed to stay anymore. Lies about pet policies, if you stay and bring a pet, you are not allowed to leave them unattended, even in a kennel, despite being told otherwise. So basically you can't leave the room whatsoever. Harassed me, called me repeatedly on hotel phone, and stood outside the door while I was trying to pack/move stuff to the car as I hadn't planned on checking out and it was 10 minutes past time. Oh, and their free wifi? Good luck getting a signal. I was right by the office and couldn't keep a signal the entire stay. Rooms were nice, otherwise.More</t>
-  </si>
-  <si>
-    <t>jainjohnson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d6506206-r393199045-Motel_6_Grand_Prairie-Grand_Prairie_Texas.html</t>
@@ -787,114 +859,104 @@
       <c r="A2" t="n">
         <v>33893</v>
       </c>
-      <c r="B2" t="n">
-        <v>169472</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33893</v>
       </c>
-      <c r="B3" t="n">
-        <v>169473</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -908,115 +970,113 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33893</v>
       </c>
-      <c r="B4" t="n">
-        <v>169474</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33893</v>
       </c>
-      <c r="B5" t="n">
-        <v>1458</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1030,74 +1090,304 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33893</v>
       </c>
-      <c r="B6" t="n">
-        <v>169475</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
         <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33893</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
